--- a/biology/Zoologie/Araçari_de_Frantzius/Araçari_de_Frantzius.xlsx
+++ b/biology/Zoologie/Araçari_de_Frantzius/Araçari_de_Frantzius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ara%C3%A7ari_de_Frantzius</t>
+          <t>Araçari_de_Frantzius</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pteroglossus frantzii
-L'Araçari de Frantzius (Pteroglossus frantzii) est une espèce d'oiseaux appartenant à la famille des Ramphastidae[1].
+L'Araçari de Frantzius (Pteroglossus frantzii) est une espèce d'oiseaux appartenant à la famille des Ramphastidae.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ara%C3%A7ari_de_Frantzius</t>
+          <t>Araçari_de_Frantzius</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce atteint 45 cm pour un poids de 250 à 280 g. Elle est noir sur la tête, le cou et le dessus, avec le ventre vert présentant une bande orange ainsi qu'une ocelle noire sur la poitrine. Le bec inférieur est noir et le supérieur est rouge et jaune près de la tête[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce atteint 45 cm pour un poids de 250 à 280 g. Elle est noir sur la tête, le cou et le dessus, avec le ventre vert présentant une bande orange ainsi qu'une ocelle noire sur la poitrine. Le bec inférieur est noir et le supérieur est rouge et jaune près de la tête.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ara%C3%A7ari_de_Frantzius</t>
+          <t>Araçari_de_Frantzius</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se trouve au Costa Rica et au Panama, de la côte du Pacifique jusqu'à 1 500 mètres d'altitude[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se trouve au Costa Rica et au Panama, de la côte du Pacifique jusqu'à 1 500 mètres d'altitude.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ara%C3%A7ari_de_Frantzius</t>
+          <t>Araçari_de_Frantzius</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit de fruits, d'insectes et de petits oiseaux.
 </t>
